--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -100,34 +100,34 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>hand</t>
@@ -1111,25 +1111,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.7444933920704846</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1137,25 +1137,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7333333333333333</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1163,25 +1163,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O21">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1189,25 +1189,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N22">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1267,25 +1267,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.6319018404907976</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1293,25 +1293,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1319,13 +1319,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.6188811188811189</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L27">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>0.95</v>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1345,25 +1345,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.6162790697674418</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="10:17">
